--- a/AutoModes.xlsx
+++ b/AutoModes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="20280" windowHeight="10485"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Auto Modes</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Shoot continously through pyramid</t>
   </si>
   <si>
-    <t>Shoot 3 times, then drive forward</t>
-  </si>
-  <si>
     <t>End Position</t>
   </si>
   <si>
@@ -82,13 +79,34 @@
   </si>
   <si>
     <t>Shoot And Defend</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>Shoot, Drive To Feeder</t>
+  </si>
+  <si>
+    <t>Shoot from corner drive to feeder station</t>
+  </si>
+  <si>
+    <t>Shoot, then drive to feeder station</t>
+  </si>
+  <si>
+    <t>Corner Shoot, To Feeder</t>
+  </si>
+  <si>
+    <t>Shoot 3 times, then drive backwards</t>
+  </si>
+  <si>
+    <t>1 or 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,7 +115,12 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -137,14 +160,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -153,6 +170,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +473,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -461,19 +481,19 @@
     <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="42.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -488,133 +508,150 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="18">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="4">
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="18">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="18">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="18">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="18">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="6"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="94" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -632,6 +669,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -644,6 +682,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>